--- a/Output/Output Files/Characterization 102819-524.xlsx
+++ b/Output/Output Files/Characterization 102819-524.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11985" windowWidth="25200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (7)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Map (7)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="0">#REF!</definedName>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
-    <definedName name="_2360" localSheetId="2">#REF!</definedName>
-    <definedName name="_2360" localSheetId="3">#REF!</definedName>
-    <definedName name="_2360" localSheetId="4">#REF!</definedName>
-    <definedName name="_2360" localSheetId="6">#REF!</definedName>
-    <definedName name="_2360" localSheetId="5">#REF!</definedName>
+    <definedName localSheetId="0" name="_2360">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
+    <definedName localSheetId="2" name="_2360">#REF!</definedName>
+    <definedName localSheetId="3" name="_2360">#REF!</definedName>
+    <definedName localSheetId="4" name="_2360">#REF!</definedName>
+    <definedName localSheetId="6" name="_2360">#REF!</definedName>
+    <definedName localSheetId="5" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602'!$1:$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602'!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (4)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (5)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (7)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Map (6)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$39</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (5)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (7)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'Map (6)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -39,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1488,994 +1488,994 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="331">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="64" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="61" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="40" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="41" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="25" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="82" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="47" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="43" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="46" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="53" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="54" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="96" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="95" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="84" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="44" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="93" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="90" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="88" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="91" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="98" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="90" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2814,25 +2814,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
-    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
-    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
-    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
+    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
+    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
+    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
+    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
+    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
       <c r="A1" s="152" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -2853,7 +2853,7 @@
       <c r="R1" s="262" t="n"/>
       <c r="S1" s="262" t="n"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       <c r="R2" s="266" t="n"/>
       <c r="S2" s="264" t="n"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="3" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
       <c r="R3" s="272" t="n"/>
       <c r="S3" s="275" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       <c r="R4" s="262" t="n"/>
       <c r="S4" s="280" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="6" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="7" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -3221,7 +3221,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="10" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -3266,7 +3266,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="11" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -3313,7 +3313,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="12" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="13" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -3404,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="14" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -3444,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="92">
+    <row customHeight="1" ht="13.5" r="15" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3488,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3530,7 +3530,7 @@
       <c r="S16" s="292" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
       <c r="A18" s="100" t="n">
         <v>1</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
       <c r="A19" s="104" t="n">
         <v>2</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
       <c r="A20" s="100" t="n">
         <v>3</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
       <c r="A21" s="104" t="n">
         <v>4</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
       <c r="A22" s="100" t="n">
         <v>5</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
       <c r="A23" s="104" t="n">
         <v>6</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
       <c r="A24" s="100" t="n">
         <v>7</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
       <c r="A25" s="104" t="n">
         <v>8</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
       <c r="A26" s="100" t="n">
         <v>9</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
       <c r="A27" s="104" t="n">
         <v>10</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
       <c r="A28" s="100" t="n">
         <v>11</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
       <c r="A29" s="104" t="n">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
       <c r="A30" s="100" t="n">
         <v>13</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
       <c r="A31" s="104" t="n">
         <v>14</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
       <c r="A32" s="100" t="n">
         <v>15</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
       <c r="A33" s="104" t="n"/>
       <c r="B33" s="322" t="n"/>
       <c r="C33" s="310" t="n"/>
@@ -4364,7 +4364,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
       <c r="A34" s="100" t="n"/>
       <c r="B34" s="322" t="n"/>
       <c r="C34" s="310" t="n"/>
@@ -4397,7 +4397,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
       <c r="A35" s="104" t="n"/>
       <c r="B35" s="322" t="n"/>
       <c r="C35" s="310" t="n"/>
@@ -4430,7 +4430,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
+    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
       <c r="A36" s="100" t="n"/>
       <c r="B36" s="322" t="n"/>
       <c r="C36" s="310" t="n"/>
@@ -4463,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
       <c r="A37" s="108" t="n"/>
       <c r="B37" s="323" t="n"/>
       <c r="C37" s="314" t="n"/>
@@ -4496,7 +4496,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4556,7 +4556,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="92">
+    <row customHeight="1" ht="15.75" r="39" s="92">
       <c r="A39" s="238" t="inlineStr">
         <is>
           <t>Reviewed by:______________________  Date:_______________</t>
@@ -4600,16 +4600,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="77">
     <mergeCell ref="B25:H25"/>
@@ -4691,8 +4681,8 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -4712,20 +4702,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
-    <col width="1.85546875" customWidth="1" style="115" min="66" max="66"/>
-    <col hidden="1" width="0.28515625" customWidth="1" style="115" min="67" max="67"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="66" min="66" style="115" width="1.85546875"/>
+    <col customWidth="1" hidden="1" max="67" min="67" style="115" width="0.28515625"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -4804,7 +4794,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -4883,7 +4873,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -4962,7 +4952,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -5041,7 +5031,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -5059,7 +5049,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -5077,7 +5067,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -5111,7 +5101,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -5145,7 +5135,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -5165,7 +5155,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -5185,7 +5175,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -5205,19 +5195,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -5240,7 +5230,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -5263,7 +5253,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -5286,7 +5276,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -5309,7 +5299,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -5332,7 +5322,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -5355,7 +5345,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -5378,7 +5368,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -5401,7 +5391,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -5434,7 +5424,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -5462,7 +5452,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -5490,7 +5480,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -5508,7 +5498,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -5550,7 +5540,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -5592,7 +5582,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -5634,7 +5624,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -5676,7 +5666,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -5718,7 +5708,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -5746,7 +5736,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -5807,7 +5797,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -5868,7 +5858,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -5895,7 +5885,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -5922,7 +5912,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -6001,7 +5991,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -6088,7 +6078,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -6147,7 +6137,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -6208,7 +6198,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -6269,7 +6259,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -6328,7 +6318,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -6389,7 +6379,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -6450,7 +6440,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -6533,15 +6523,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -6566,8 +6553,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -6587,20 +6574,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CM20" sqref="CM20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
-    <col width="1.5703125" customWidth="1" style="115" min="66" max="66"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="67" max="75"/>
-    <col width="0.42578125" customWidth="1" style="115" min="76" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="66" min="66" style="115" width="1.5703125"/>
+    <col customWidth="1" hidden="1" max="75" min="67" style="115" width="1.7109375"/>
+    <col customWidth="1" max="76" min="76" style="115" width="0.42578125"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -6679,7 +6666,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -6758,7 +6745,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -6837,7 +6824,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -6916,7 +6903,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -6934,7 +6921,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -6952,7 +6939,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -6986,7 +6973,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -7020,7 +7007,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -7040,7 +7027,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -7060,7 +7047,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -7080,19 +7067,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -7115,7 +7102,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -7138,7 +7125,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -7161,7 +7148,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -7184,7 +7171,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -7207,7 +7194,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -7230,7 +7217,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -7253,7 +7240,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -7276,7 +7263,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -7309,7 +7296,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -7337,7 +7324,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -7365,7 +7352,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -7383,7 +7370,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -7425,7 +7412,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -7467,7 +7454,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -7509,7 +7496,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -7551,7 +7538,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -7593,7 +7580,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -7621,7 +7608,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -7682,7 +7669,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -7743,7 +7730,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -7770,7 +7757,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -7797,7 +7784,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -7876,7 +7863,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7963,7 +7950,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -8022,7 +8009,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -8083,7 +8070,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -8144,7 +8131,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -8203,7 +8190,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -8264,7 +8251,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -8325,7 +8312,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -8408,15 +8395,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -8441,8 +8425,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -8462,20 +8446,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="DA24" sqref="DA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
-    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
-    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
+    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -8554,7 +8538,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -8633,7 +8617,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -8712,7 +8696,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -8791,7 +8775,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -8809,7 +8793,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -8827,7 +8811,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -8861,7 +8845,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -8895,7 +8879,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -8915,7 +8899,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -8935,7 +8919,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -8955,19 +8939,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -8990,7 +8974,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -9013,7 +8997,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -9036,7 +9020,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -9059,7 +9043,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -9082,7 +9066,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -9105,7 +9089,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -9128,7 +9112,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -9151,7 +9135,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -9184,7 +9168,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -9212,7 +9196,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -9240,7 +9224,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -9258,7 +9242,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -9300,7 +9284,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -9342,7 +9326,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -9384,7 +9368,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -9426,7 +9410,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -9468,7 +9452,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -9496,7 +9480,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -9557,7 +9541,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -9618,7 +9602,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -9645,7 +9629,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -9672,7 +9656,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -9751,7 +9735,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9838,7 +9822,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9897,7 +9881,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9958,7 +9942,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -10019,7 +10003,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -10078,7 +10062,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -10139,7 +10123,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -10200,7 +10184,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -10283,15 +10267,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -10316,8 +10297,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -10337,21 +10318,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
-    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
-    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="75"/>
-    <col width="0.140625" customWidth="1" style="115" min="76" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
+    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
+    <col customWidth="1" hidden="1" max="75" min="68" style="115" width="1.7109375"/>
+    <col customWidth="1" max="76" min="76" style="115" width="0.140625"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -10430,7 +10411,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -10509,7 +10490,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -10588,7 +10569,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -10667,7 +10648,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -10685,7 +10666,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -10703,7 +10684,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -10737,7 +10718,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -10771,7 +10752,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -10791,7 +10772,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -10811,7 +10792,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -10831,19 +10812,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -10866,7 +10847,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -10889,7 +10870,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -10912,7 +10893,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -10935,7 +10916,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -10958,7 +10939,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -10981,7 +10962,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -11004,7 +10985,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -11027,7 +11008,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -11060,7 +11041,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -11088,7 +11069,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -11116,7 +11097,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -11134,7 +11115,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -11176,7 +11157,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -11218,7 +11199,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -11260,7 +11241,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -11302,7 +11283,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -11344,7 +11325,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -11372,7 +11353,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -11433,7 +11414,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -11494,7 +11475,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -11521,7 +11502,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -11548,7 +11529,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -11627,7 +11608,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -11714,7 +11695,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -11773,7 +11754,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -11834,7 +11815,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -11895,7 +11876,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -11954,7 +11935,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -12015,7 +11996,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -12076,7 +12057,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -12159,15 +12140,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -12192,8 +12170,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -12213,21 +12191,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CG23" sqref="CG23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
-    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
-    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="75"/>
-    <col width="0.140625" customWidth="1" style="115" min="76" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
+    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
+    <col customWidth="1" hidden="1" max="75" min="68" style="115" width="1.7109375"/>
+    <col customWidth="1" max="76" min="76" style="115" width="0.140625"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -12306,7 +12284,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -12385,7 +12363,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -12464,7 +12442,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -12543,7 +12521,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -12561,7 +12539,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -12579,7 +12557,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -12613,7 +12591,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -12647,7 +12625,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -12667,7 +12645,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -12687,7 +12665,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -12707,19 +12685,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -12742,7 +12720,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -12765,7 +12743,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -12788,7 +12766,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -12811,7 +12789,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -12834,7 +12812,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -12857,7 +12835,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -12880,7 +12858,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -12903,7 +12881,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -12936,7 +12914,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -12964,7 +12942,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -12992,7 +12970,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -13010,7 +12988,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -13052,7 +13030,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -13094,7 +13072,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -13136,7 +13114,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -13178,7 +13156,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -13220,7 +13198,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -13248,7 +13226,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -13309,7 +13287,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -13370,7 +13348,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -13397,7 +13375,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -13424,7 +13402,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -13503,7 +13481,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13590,7 +13568,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13649,7 +13627,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13710,7 +13688,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13771,7 +13749,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13830,7 +13808,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -13891,7 +13869,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -13952,7 +13930,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -14035,15 +14013,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -14068,8 +14043,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -14089,19 +14064,19 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CQ33" sqref="CQ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="115" min="1" max="66"/>
-    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
-    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
-    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
+    <col customWidth="1" max="66" min="1" style="115" width="1.7109375"/>
+    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
+    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
+    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -14180,7 +14155,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -14259,7 +14234,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="3" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -14338,7 +14313,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="4" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -14417,7 +14392,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="5" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -14435,7 +14410,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="6" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -14453,7 +14428,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="7" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -14487,7 +14462,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="8" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -14521,7 +14496,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="9" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -14541,7 +14516,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="10" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -14561,7 +14536,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="11" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -14581,19 +14556,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="12" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="13" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="14" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="15" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -14616,7 +14591,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="16" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -14639,7 +14614,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="17" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -14662,7 +14637,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="18" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -14685,7 +14660,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="19" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -14708,7 +14683,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="20" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -14731,7 +14706,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="21" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -14754,7 +14729,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="22" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -14777,7 +14752,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="23" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -14810,7 +14785,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="24" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -14838,7 +14813,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="25" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -14866,7 +14841,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="26" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -14884,7 +14859,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="27" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -14926,7 +14901,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="28" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -14968,7 +14943,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="29" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -15010,7 +14985,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="30" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -15052,7 +15027,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="31" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -15094,7 +15069,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="32" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -15122,7 +15097,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="33" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -15183,7 +15158,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="34" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -15244,7 +15219,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="35" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -15271,7 +15246,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="36" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -15298,7 +15273,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -15377,7 +15352,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
+    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -15464,7 +15439,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="39" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -15523,7 +15498,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="40" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -15584,7 +15559,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="41" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -15645,7 +15620,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="42" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -15704,7 +15679,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="43" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -15765,7 +15740,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="44" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -15826,7 +15801,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
+    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -15909,15 +15884,12 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="51" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row customHeight="1" ht="12" r="51" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1" s="92">
+    <row customHeight="1" ht="12" r="52" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -15942,8 +15914,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
